--- a/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-390" yWindow="90" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-390" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -4756,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7394" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3772,6 +3772,10 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4756,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4938,7 +4942,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="7">
-        <v>41106</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4985,9 +4989,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>841</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5014,11 +5018,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5044,8 +5046,12 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5071,10 +5077,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5101,7 +5105,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5134,7 +5138,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5163,7 +5167,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5190,7 +5194,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5223,7 +5227,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
@@ -5251,10 +5255,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5280,7 +5284,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5311,11 +5315,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5343,9 +5345,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5370,7 +5374,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
@@ -5398,8 +5402,10 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5483,8 +5489,8 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15" ht="14.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="4">
         <v>24</v>
       </c>
@@ -5663,6 +5669,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4">
         <v>31</v>
       </c>
@@ -5986,7 +5993,6 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
       <c r="C45" s="4">
         <v>44</v>
       </c>
@@ -6271,6 +6277,8 @@
       <c r="O54" s="12"/>
     </row>
     <row r="55" spans="1:15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="4">
         <v>54</v>
       </c>
@@ -7223,8 +7231,6 @@
       <c r="N93" s="17"/>
     </row>
     <row r="94" spans="1:15" ht="15">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
       <c r="C94" s="4">
         <v>93</v>
       </c>
@@ -7323,6 +7329,8 @@
       <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="4">
         <v>97</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1071_NformToolsServiceControl.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7394" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4758,10 +4758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4967,7 +4967,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5824,17 +5824,15 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="14"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5852,23 +5850,17 @@
         <v>811</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="J39" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5886,14 +5878,20 @@
         <v>272</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="J40" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5908,10 +5906,10 @@
         <v>811</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>2</v>
@@ -5930,15 +5928,17 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F42" s="4">
-        <v>5</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="4"/>
@@ -5947,42 +5947,40 @@
       <c r="M42" s="4"/>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:15" ht="15">
+    <row r="43" spans="1:15">
       <c r="A43" s="12"/>
       <c r="C43" s="4">
         <v>42</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>831</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="19"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="12"/>
       <c r="C44" s="4">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D44" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6003,7 +6001,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>2</v>
@@ -6026,11 +6024,11 @@
       <c r="D46" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>235</v>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>2</v>
@@ -6054,17 +6052,15 @@
         <v>817</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>818</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -6086,15 +6082,15 @@
         <v>248</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="I48" s="14"/>
+        <v>818</v>
+      </c>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -6115,15 +6111,15 @@
         <v>248</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>819</v>
+      </c>
+      <c r="I49" s="14"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -6144,13 +6140,13 @@
         <v>248</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6167,13 +6163,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>248</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>4</v>
@@ -6196,21 +6192,21 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>248</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="I52" s="14"/>
+        <v>821</v>
+      </c>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6231,13 +6227,13 @@
         <v>248</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="4"/>
@@ -6260,15 +6256,15 @@
         <v>248</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>824</v>
+        <v>254</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>825</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>823</v>
+      </c>
+      <c r="I54" s="14"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6289,13 +6285,13 @@
         <v>248</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>824</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -6315,13 +6311,13 @@
         <v>248</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>824</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6341,26 +6337,22 @@
         <v>248</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>829</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25">
+    <row r="58" spans="1:15">
       <c r="C58" s="4">
         <v>57</v>
       </c>
@@ -6374,19 +6366,23 @@
         <v>257</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="4"/>
+        <v>828</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>829</v>
+      </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="19"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="14.25">
       <c r="C59" s="4">
         <v>58</v>
       </c>
@@ -6397,15 +6393,15 @@
         <v>248</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="I59" s="4"/>
+        <v>812</v>
+      </c>
+      <c r="I59" s="18"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6423,12 +6419,14 @@
         <v>248</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>830</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -6447,7 +6445,7 @@
         <v>248</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>137</v>
@@ -6471,7 +6469,7 @@
         <v>248</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>137</v>
@@ -6495,13 +6493,13 @@
         <v>248</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6519,7 +6517,7 @@
         <v>248</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>137</v>
@@ -6543,13 +6541,13 @@
         <v>248</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6561,13 +6559,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
@@ -6585,13 +6583,13 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>2</v>
@@ -6609,15 +6607,17 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F68" s="4">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>817</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6631,21 +6631,17 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="I69" s="14"/>
+        <v>791</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -6663,12 +6659,14 @@
         <v>235</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="14"/>
+        <v>803</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I70" s="14"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6676,16 +6674,22 @@
       <c r="M70" s="4"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="3:14" ht="15">
+    <row r="71" spans="3:14">
       <c r="C71" s="4">
         <v>70</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="D71" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="4"/>
@@ -6699,7 +6703,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="4"/>
@@ -6712,24 +6716,18 @@
       <c r="M72" s="4"/>
       <c r="N72" s="19"/>
     </row>
-    <row r="73" spans="3:14">
+    <row r="73" spans="3:14" ht="15">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D73" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6747,12 +6745,12 @@
         <v>19</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6765,24 +6763,20 @@
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>836</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -6793,24 +6787,28 @@
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>798</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+        <v>787</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>836</v>
+      </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="13"/>
+      <c r="N76" s="19"/>
     </row>
     <row r="77" spans="3:14">
       <c r="C77" s="4">
@@ -6823,7 +6821,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>2</v>
@@ -6844,10 +6842,10 @@
         <v>799</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>714</v>
+        <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6871,7 +6869,7 @@
         <v>714</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>715</v>
+        <v>20</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>2</v>
@@ -6892,20 +6890,16 @@
         <v>799</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="I80" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -6926,10 +6920,14 @@
         <v>725</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="I81" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6941,15 +6939,17 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F82" s="4">
-        <v>10</v>
-      </c>
-      <c r="G82" s="4"/>
+        <v>724</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="14"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6963,23 +6963,17 @@
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="I83" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F83" s="4">
+        <v>10</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -7000,10 +6994,14 @@
         <v>726</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="I84" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -7015,15 +7013,17 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F85" s="4">
-        <v>10</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>724</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="14"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -7037,23 +7037,17 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="I86" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F86" s="4">
+        <v>10</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -7074,10 +7068,14 @@
         <v>727</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="I87" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -7089,15 +7087,17 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F88" s="4">
-        <v>10</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>799</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="4"/>
@@ -7111,24 +7111,22 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+        <v>791</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F89" s="4">
+        <v>10</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="17"/>
+      <c r="N89" s="13"/>
     </row>
     <row r="90" spans="1:15">
       <c r="C90" s="4">
@@ -7138,10 +7136,10 @@
         <v>799</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>2</v>
@@ -7159,54 +7157,54 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="13"/>
+      <c r="N91" s="17"/>
     </row>
     <row r="92" spans="1:15">
       <c r="C92" s="4">
         <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+        <v>787</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25">
+    <row r="93" spans="1:15">
       <c r="C93" s="4">
         <v>92</v>
       </c>
@@ -7217,53 +7215,55 @@
         <v>714</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="18"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="17"/>
+      <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:15" ht="15">
+    <row r="94" spans="1:15" ht="14.25">
       <c r="C94" s="4">
         <v>93</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="14"/>
+      <c r="D94" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="18"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="19"/>
+      <c r="N94" s="17"/>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="15">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="4">
         <v>94</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
+      <c r="D95" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="14"/>
       <c r="I95" s="4"/>
@@ -7281,24 +7281,22 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="13"/>
+      <c r="N96" s="19"/>
       <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15">
@@ -7314,7 +7312,7 @@
         <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
@@ -7335,28 +7333,26 @@
         <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="I98" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="20"/>
+      <c r="N98" s="13"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25">
+    <row r="99" spans="1:15">
       <c r="C99" s="4">
         <v>98</v>
       </c>
@@ -7367,12 +7363,14 @@
         <v>235</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -7380,7 +7378,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="14.25">
       <c r="C100" s="4">
         <v>99</v>
       </c>
@@ -7391,14 +7389,12 @@
         <v>235</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>812</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" s="18"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7417,18 +7413,20 @@
         <v>235</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="13"/>
+      <c r="N101" s="20"/>
     </row>
     <row r="102" spans="1:15">
       <c r="C102" s="4">
@@ -7441,22 +7439,46 @@
         <v>235</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="14"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
-      <c r="N102" s="19"/>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="C103" s="4">
+        <v>102</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N102">
+  <conditionalFormatting sqref="N2:N103">
     <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7465,22 +7487,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D70 D88 D73:D75 D3:D4 D20 D28:D34 D36:D42 D23 D91 D95:D97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45:D71 D89 D74:D76 D3:D4 D20 D28:D34 D23 D92 D96:D98 D36:D43">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G103">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F103">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E103">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H52" r:id="rId1"/>
-    <hyperlink ref="H53" r:id="rId2"/>
+    <hyperlink ref="H53" r:id="rId1"/>
+    <hyperlink ref="H54" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
